--- a/prolog/data/diseases_with_patient_complaints1000.xlsx
+++ b/prolog/data/diseases_with_patient_complaints1000.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16816" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16816" uniqueCount="629">
   <si>
     <t>disease</t>
   </si>
@@ -1903,6 +1903,9 @@
   </si>
   <si>
     <t>For the past on and off for years, I have noticed neck tightness that after exertion. It is intermittent, and the unpredictability makes it difficult to plan my day or commit to longer activities. I look for patterns in diet, sleep, and stress but have not identified a consistent cause, which leaves me uncertain and somewhat concerned. The symptom does not prevent me from functioning, yet it has changed how I approach exercise, errands, and social plans. I keep a brief daily log of meals, sleep, and activity to see whether a pattern becomes clear.</t>
+  </si>
+  <si>
+    <t>some time after an illness</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2715,7 @@
   <dimension ref="A1:P1201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3970,7 +3973,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>628</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
